--- a/final_patient_list.xlsx
+++ b/final_patient_list.xlsx
@@ -1,62 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LBS\Archvale\Archvale-patient-analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9DB59-50A3-49A1-8957-50FA832D2399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet 1'!$A$1:$K$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registration_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visit_n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app_interval_int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="40">
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>registration_date</t>
+  </si>
+  <si>
+    <t>visit_n</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>n_disease</t>
+  </si>
+  <si>
+    <t>avg_time</t>
+  </si>
+  <si>
+    <t>app_interval_int</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>Unique patient ID</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Patient’s date of Birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Patient’s gender</t>
+  </si>
+  <si>
+    <t>PotentialPatientslist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration Date</t>
+  </si>
+  <si>
+    <t>Date in which patient registered to the practice</t>
+  </si>
+  <si>
+    <t>visit_n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cohort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_disease</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_interval_int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>age_group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients registered after March 2023 are classified as "New" cohort, otherwise "Old" </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of chronic disease the patient have</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average intervals between appointments, a.o. days</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average planned appointment time, a.o. minutes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients under 8 or above 65 are classified as "Under 8 or above 65", the rest "Others" </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patient's age to date, a.o. years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of GP consultations of the patient in the given time frame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -64,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,17 +180,70 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF158466"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
+        <bgColor rgb="FFB3CAC7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -96,18 +251,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -389,1660 +603,1928 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C3BB7E-EF75-4E8A-9638-ED901438C101}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>425567</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>24459</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>35155</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>11.3888888888889</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>18.2777777777778</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>199453</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>31778</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>42384</v>
       </c>
-      <c r="E3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>10.8333333333333</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>28.5</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>326281</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>24343</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>44494</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.3636363636364</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>11.363636363636401</v>
+      </c>
+      <c r="J4">
         <v>31</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>671893</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>26533</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>44965</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>11.1111111111111</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>12.4444444444444</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>52500</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>34457</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>42739</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>10.625</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>37</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>116059</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>34580</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>43811</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>11.25</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>37.125</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>791205</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>27787</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>40679</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>11.875</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>22.25</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>845781</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>28907</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>38954</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>11.25</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>30.125</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>924918</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>35788</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>42828</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>26</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>10.625</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>37.375</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>131518</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>25125</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>44810</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>13.5714285714286</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>18.8571428571429</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>169071</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>27562</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>42496</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>11.4285714285714</v>
       </c>
-      <c r="J12" t="n">
-        <v>24.5714285714286</v>
+      <c r="J12">
+        <v>24.571428571428601</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>307510</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>25620</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>35155</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>11.4285714285714</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>11.5714285714286</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>644108</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>38830</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>38853</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.7142857142857</v>
-      </c>
-      <c r="J14" t="n">
-        <v>41.1428571428571</v>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>10.714285714285699</v>
+      </c>
+      <c r="J14">
+        <v>41.142857142857103</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>722477</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>33312</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>35155</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.7142857142857</v>
-      </c>
-      <c r="J15" t="n">
-        <v>47.8571428571429</v>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>10.714285714285699</v>
+      </c>
+      <c r="J15">
+        <v>47.857142857142897</v>
       </c>
       <c r="K15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>769392</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>30868</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>35155</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>12.1428571428571</v>
       </c>
-      <c r="J16" t="n">
-        <v>29.4285714285714</v>
+      <c r="J16">
+        <v>29.428571428571399</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>731668</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>31443</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>42405</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>11.6666666666667</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>29</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>877220</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>33458</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>44424</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>10</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>54.5</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>449175</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>35271</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>35377</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>25</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>12.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>14.52</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>390794</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>30936</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>35155</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>21</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10.952380952381</v>
-      </c>
-      <c r="J20" t="n">
-        <v>17.952380952381</v>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>10.952380952381001</v>
+      </c>
+      <c r="J20">
+        <v>17.952380952380999</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>357148</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>31047</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>42741</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>19</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.5263157894737</v>
-      </c>
-      <c r="J21" t="n">
-        <v>18.9473684210526</v>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>10.526315789473699</v>
+      </c>
+      <c r="J21">
+        <v>18.947368421052602</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>617753</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>27958</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>41031</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>16</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>10.3125</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>20.5</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>818746</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>30983</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>44349</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>12.1875</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>23.4375</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>287807</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>25404</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>35155</v>
       </c>
-      <c r="E24" t="n">
-        <v>14</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
         <v>54</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>11.4285714285714</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>26.6428571428571</v>
       </c>
       <c r="K24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>925346</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>38478</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="1">
         <v>38539</v>
       </c>
-      <c r="E25" t="n">
-        <v>14</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
         <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>11.4285714285714</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>22.1428571428571</v>
       </c>
       <c r="K25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>639942</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>31577</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="1">
         <v>38418</v>
       </c>
-      <c r="E26" t="n">
-        <v>13</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E26">
+        <v>13</v>
+      </c>
+      <c r="F26">
         <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12.6923076923077</v>
-      </c>
-      <c r="J26" t="n">
-        <v>27.3076923076923</v>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>12.692307692307701</v>
+      </c>
+      <c r="J26">
+        <v>27.307692307692299</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>733389</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>34007</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>44586</v>
       </c>
-      <c r="E27" t="n">
-        <v>13</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
         <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>11.9230769230769</v>
       </c>
-      <c r="J27" t="n">
-        <v>28.0769230769231</v>
+      <c r="J27">
+        <v>28.076923076923102</v>
       </c>
       <c r="K27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>783803</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>22949</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>35155</v>
       </c>
-      <c r="E28" t="n">
-        <v>13</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
         <v>61</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.3846153846154</v>
-      </c>
-      <c r="J28" t="n">
-        <v>28.8461538461538</v>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10.384615384615399</v>
+      </c>
+      <c r="J28">
+        <v>28.846153846153801</v>
       </c>
       <c r="K28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>981472</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>36793</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>44774</v>
       </c>
-      <c r="E29" t="n">
-        <v>13</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
         <v>23</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>10</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>15.7692307692308</v>
       </c>
       <c r="K29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>263823</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>30302</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>44348</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>11</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.3636363636364</v>
-      </c>
-      <c r="J30" t="n">
-        <v>29.9090909090909</v>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>11.363636363636401</v>
+      </c>
+      <c r="J30">
+        <v>29.909090909090899</v>
       </c>
       <c r="K30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>781523</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>34077</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>42458</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>11</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.8181818181818</v>
-      </c>
-      <c r="J31" t="n">
-        <v>29.7272727272727</v>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>11.818181818181801</v>
+      </c>
+      <c r="J31">
+        <v>29.727272727272702</v>
       </c>
       <c r="K31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>430043</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>39468</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>40956</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>10</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>11.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>39</v>
       </c>
       <c r="K32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>819997</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>36265</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>36294</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>10</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>24</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
         <v>25.8</v>
       </c>
       <c r="K33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>911716</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>41776</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>41786</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>9</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>10</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>37.1</v>
       </c>
       <c r="K34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>931428</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>25834</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>35922</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>10</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>11</v>
       </c>
-      <c r="J35" t="n">
-        <v>37.3</v>
+      <c r="J35">
+        <v>37.299999999999997</v>
       </c>
       <c r="K35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>196495</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>29393</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="1">
         <v>35155</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>9</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>43</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>10.5555555555556</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>38.4444444444444</v>
       </c>
       <c r="K36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>586820</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>29716</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>38951</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>9</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>42</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>13.3333333333333</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>30.3333333333333</v>
       </c>
       <c r="K37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>8459</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>36492</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="1">
         <v>44776</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>8</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>24</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>11.25</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>29.625</v>
       </c>
       <c r="K38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>172524</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>24649</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="1">
         <v>42244</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>7</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>56</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>11.4285714285714</v>
       </c>
-      <c r="J39" t="n">
-        <v>47.1428571428571</v>
+      <c r="J39">
+        <v>47.142857142857103</v>
       </c>
       <c r="K39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>407668</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>25966</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>39399</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>7</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>52</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>10</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>52</v>
       </c>
       <c r="K40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>426285</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>27787</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>44257</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>7</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>47</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>11.4285714285714</v>
       </c>
-      <c r="J41" t="n">
-        <v>26.5714285714286</v>
+      <c r="J41">
+        <v>26.571428571428601</v>
       </c>
       <c r="K41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>534379</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>34396</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="1">
         <v>42226</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>7</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>29</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>11.4285714285714</v>
       </c>
-      <c r="J42" t="n">
-        <v>53.5714285714286</v>
+      <c r="J42">
+        <v>53.571428571428598</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>664750</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>31935</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="1">
         <v>44627</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>7</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>11.4285714285714</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>52</v>
       </c>
       <c r="K43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>726399</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>32417</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="1">
         <v>44553</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>11.4285714285714</v>
       </c>
-      <c r="J44" t="n">
-        <v>46.8571428571429</v>
+      <c r="J44">
+        <v>46.857142857142897</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>896094</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>35794</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>44025</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>7</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>26</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>10</v>
       </c>
-      <c r="J45" t="n">
-        <v>39.7142857142857</v>
+      <c r="J45">
+        <v>39.714285714285701</v>
       </c>
       <c r="K45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>970834</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>28908</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="1">
         <v>43026</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>7</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>44</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>10</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>44</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>986744</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>38353</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="1">
         <v>38413</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>7</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>18</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>11.4285714285714</v>
       </c>
-      <c r="J47" t="n">
-        <v>47.4285714285714</v>
+      <c r="J47">
+        <v>47.428571428571402</v>
       </c>
       <c r="K47" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{64D4F504-48E7-4451-9D29-CE036F0967FC}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>